--- a/RVD_Predictor_Analysis/results/ExcelFiles/Rhinovirus_Only.xlsx
+++ b/RVD_Predictor_Analysis/results/ExcelFiles/Rhinovirus_Only.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <si>
     <t xml:space="preserve">ABCB1</t>
   </si>
@@ -47,9 +47,6 @@
     <t xml:space="preserve">COL3A1</t>
   </si>
   <si>
-    <t xml:space="preserve">CRAT</t>
-  </si>
-  <si>
     <t xml:space="preserve">DLAT</t>
   </si>
   <si>
@@ -167,19 +164,40 @@
     <t xml:space="preserve">RPH3A</t>
   </si>
   <si>
+    <t xml:space="preserve">AKAP9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CACNA1I</t>
+  </si>
+  <si>
     <t xml:space="preserve">CD1E</t>
   </si>
   <si>
     <t xml:space="preserve">CD244</t>
   </si>
   <si>
+    <t xml:space="preserve">DHRS9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DYNC1LI1</t>
+  </si>
+  <si>
     <t xml:space="preserve">EIF5A</t>
   </si>
   <si>
     <t xml:space="preserve">ERV3-2</t>
   </si>
   <si>
-    <t xml:space="preserve">HIST3H2A</t>
+    <t xml:space="preserve">FCGBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAMD1C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSTM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERC2</t>
   </si>
   <si>
     <t xml:space="preserve">HLA-DPB1</t>
@@ -215,15 +233,27 @@
     <t xml:space="preserve">PRKD3</t>
   </si>
   <si>
+    <t xml:space="preserve">RPH3AL</t>
+  </si>
+  <si>
     <t xml:space="preserve">SCAND2P</t>
   </si>
   <si>
+    <t xml:space="preserve">SERPINE2</t>
+  </si>
+  <si>
     <t xml:space="preserve">STARD8</t>
   </si>
   <si>
+    <t xml:space="preserve">SUPT3H</t>
+  </si>
+  <si>
     <t xml:space="preserve">SUSD4</t>
   </si>
   <si>
+    <t xml:space="preserve">TRIM2</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALAD</t>
   </si>
   <si>
@@ -239,6 +269,9 @@
     <t xml:space="preserve">ATP1B1</t>
   </si>
   <si>
+    <t xml:space="preserve">BIN1</t>
+  </si>
+  <si>
     <t xml:space="preserve">C3</t>
   </si>
   <si>
@@ -251,6 +284,9 @@
     <t xml:space="preserve">CDKN2C</t>
   </si>
   <si>
+    <t xml:space="preserve">CES1</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHEK1</t>
   </si>
   <si>
@@ -260,6 +296,9 @@
     <t xml:space="preserve">CSAD</t>
   </si>
   <si>
+    <t xml:space="preserve">CXCL6</t>
+  </si>
+  <si>
     <t xml:space="preserve">CYP27A1</t>
   </si>
   <si>
@@ -290,6 +329,9 @@
     <t xml:space="preserve">HTATIP2</t>
   </si>
   <si>
+    <t xml:space="preserve">IFI44L</t>
+  </si>
+  <si>
     <t xml:space="preserve">IFNAR2</t>
   </si>
   <si>
@@ -299,6 +341,9 @@
     <t xml:space="preserve">ITGB4</t>
   </si>
   <si>
+    <t xml:space="preserve">KIF11</t>
+  </si>
+  <si>
     <t xml:space="preserve">LCP2</t>
   </si>
   <si>
@@ -308,6 +353,9 @@
     <t xml:space="preserve">MAOA</t>
   </si>
   <si>
+    <t xml:space="preserve">MAST3</t>
+  </si>
+  <si>
     <t xml:space="preserve">MGST3</t>
   </si>
   <si>
@@ -323,9 +371,15 @@
     <t xml:space="preserve">NR4A2</t>
   </si>
   <si>
+    <t xml:space="preserve">OAS1</t>
+  </si>
+  <si>
     <t xml:space="preserve">PAX4</t>
   </si>
   <si>
+    <t xml:space="preserve">PECAM1</t>
+  </si>
+  <si>
     <t xml:space="preserve">PLPP3</t>
   </si>
   <si>
@@ -335,6 +389,12 @@
     <t xml:space="preserve">PTPRD</t>
   </si>
   <si>
+    <t xml:space="preserve">PTPRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTTG1</t>
+  </si>
+  <si>
     <t xml:space="preserve">PYGM</t>
   </si>
   <si>
@@ -347,27 +407,48 @@
     <t xml:space="preserve">SLC1A5</t>
   </si>
   <si>
+    <t xml:space="preserve">SLC22A18</t>
+  </si>
+  <si>
     <t xml:space="preserve">SLC23A2</t>
   </si>
   <si>
     <t xml:space="preserve">SPP1</t>
   </si>
   <si>
+    <t xml:space="preserve">STAT1</t>
+  </si>
+  <si>
     <t xml:space="preserve">SYNCRIP</t>
   </si>
   <si>
     <t xml:space="preserve">TIMM13</t>
   </si>
   <si>
+    <t xml:space="preserve">TLR6</t>
+  </si>
+  <si>
     <t xml:space="preserve">TMBIM6</t>
   </si>
   <si>
+    <t xml:space="preserve">TNFAIP6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOP2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPST1</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSTA3</t>
   </si>
   <si>
     <t xml:space="preserve">ZFPM2</t>
   </si>
   <si>
+    <t xml:space="preserve">PPP4R1</t>
+  </si>
+  <si>
     <t xml:space="preserve">RAB20</t>
   </si>
   <si>
@@ -401,6 +482,9 @@
     <t xml:space="preserve">RNF24</t>
   </si>
   <si>
+    <t xml:space="preserve">TNFRSF10B</t>
+  </si>
+  <si>
     <t xml:space="preserve">ABLIM1</t>
   </si>
   <si>
@@ -512,9 +596,6 @@
     <t xml:space="preserve">SLC16A1</t>
   </si>
   <si>
-    <t xml:space="preserve">SLC25A37</t>
-  </si>
-  <si>
     <t xml:space="preserve">SNX10</t>
   </si>
   <si>
@@ -536,9 +617,6 @@
     <t xml:space="preserve">TIMM17A</t>
   </si>
   <si>
-    <t xml:space="preserve">TNFAIP6</t>
-  </si>
-  <si>
     <t xml:space="preserve">WAS</t>
   </si>
   <si>
@@ -563,7 +641,16 @@
     <t xml:space="preserve">LPAR1</t>
   </si>
   <si>
+    <t xml:space="preserve">MGAM</t>
+  </si>
+  <si>
     <t xml:space="preserve">MPZL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PADI4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERPINF1</t>
   </si>
   <si>
     <t xml:space="preserve">API5</t>
@@ -1879,6 +1966,151 @@
         <v>191</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
